--- a/demo/py_outputs/villages/Ranebennur_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Ranebennur_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L362"/>
+  <dimension ref="A1:M362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>26.78294134736851</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>29.98218443969293</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>28.75992292108061</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>28.00101034301563</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>28.87508489597126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>28.41068873377607</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>26.6363332809132</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>29.85295840609941</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>29.44260658776486</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>29.89916125143187</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>27.28629958640121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>27.47544577796345</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>24.69274178715999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>24.34796096488557</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>24.3141313687884</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>28.56854372130092</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>29.09621169763544</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>25.27521444290765</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>26.19767520521103</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>29.37654423223658</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>29.52543079321893</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>25.5410064940415</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>22.69750809134751</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>22.04446003607454</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>24.49532772411152</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>21.43882680256354</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>20.41640358785021</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>21.67877737489297</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>28.16731314073074</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>24.23365028287646</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>25.82995865976272</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>29.15682797517436</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>28.74371167461039</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>27.73985735311527</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>25.1894122121103</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>22.76518255785534</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>20.57636095404158</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>21.23903485073257</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>23.79738921792675</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>26.4590815161667</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>29.30216111101458</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>26.10215631907864</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>23.31672462782226</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>24.77612947123448</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>21.45730818276328</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2975,8 +3115,11 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>20.14014807542148</v>
       </c>
     </row>
     <row r="48">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>18.62531555779685</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>22.01887581894655</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>23.43332884032109</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>18.47141809502319</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>14.31982899128821</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>19.70328406923292</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>23.47074546141237</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>24.95996884124282</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>26.28676405592676</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3515,8 +3685,11 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>23.44425784933616</v>
       </c>
     </row>
     <row r="58">
@@ -3572,6 +3745,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>20.99127373856886</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>17.28245655487525</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>15.2007451416789</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>13.66304211155956</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>17.54716370089542</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>19.28438341684905</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>21.39457953896527</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>17.87904860810427</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>16.24621414173357</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>13.92789343941429</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>16.4078838550033</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>18.29224013745932</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>19.22143246529341</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>22.85531301883362</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>18.78212353924107</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>16.3446448154318</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>14.96943118309359</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>25.96921773376385</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>28.49979315001533</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>23.21650030096877</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>27.72551037117993</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>27.89930343094221</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>25.91885098294543</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>24.34073105470892</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>24.91407700551438</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>26.27397862975425</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>29.0293568292042</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>29.87105224724102</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>28.88953903466428</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>27.22483850125248</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>29.89170385384715</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>26.43201750355326</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>29.05773035396494</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>28.17532237362848</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>23.84083217016028</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>21.34370508973785</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>23.00625536356343</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>21.5329200585277</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>22.58127282722671</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>22.63611488848477</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>20.88684596387078</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>21.00235826030793</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>18.52231608565807</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>18.30423744575183</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>19.80066921913906</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>17.16021813154215</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>16.1333043507816</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>18.28540281446804</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>19.76306959657597</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>16.24974762568829</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>17.94393837372792</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>18.58080574494762</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>19.3219233981005</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>20.99886908413592</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>22.14338326943448</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>23.96290562993572</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>25.88006683312199</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>27.51683761796601</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>28.39153299341153</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>29.86970719323727</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>24.52670276977025</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>23.70243644231536</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>21.59217061135551</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>20.93926127300287</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>19.62203255885671</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>17.80915681927392</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>19.61707382932125</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>21.28630252108542</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>22.669615548642</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>24.87807165484299</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>26.95710232238476</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>29.32594380513917</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>28.87249306327758</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>29.63685114085008</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>28.94534760992462</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7622,6 +8020,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>28.54370926301715</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>27.43095631625673</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>27.04836198159165</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>24.38335866637215</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>25.54396197879313</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>27.81797844715686</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>27.20597368882706</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8000,6 +8419,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>24.39122924837493</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>23.94886550939267</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>24.02359335282087</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>26.52550962238754</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>28.65149489656321</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>27.96969543477985</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>28.80395220694169</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8378,6 +8818,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>29.71541109090601</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>29.79947771073884</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>16.85668993293395</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>18.72350948931732</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>20.16726028250836</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>20.30151394233559</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>19.53237908201517</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>19.50339043968803</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>17.44871636756087</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>17.70716554077299</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>12.33768970150642</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8969,8 +9442,11 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>11.36338173012182</v>
       </c>
     </row>
     <row r="159">
@@ -9026,6 +9502,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>13.03064096552007</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>14.62153123405435</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>17.36337362243089</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9188,6 +9673,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M162" t="n">
+        <v>14.03053150368899</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,6 +9730,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>11.86707709141536</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>9.358044635695082</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>11.06980267538162</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>8.145272128625756</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>10.07222445795354</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>15.75023257411494</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>17.98124714281405</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>17.20635606352181</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>15.32490906874115</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>13.3485183031464</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>10.35983386507613</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>7.42595825445967</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>14.98476275722472</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>9.21103272377665</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>12.52654447949769</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>14.71322999947402</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>12.14614344564663</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>15.02975945357443</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>16.47018193362218</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>19.08561577247712</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>13.12830479473398</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>13.47000501305136</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10427,8 +10981,11 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>10.89411240069971</v>
       </c>
     </row>
     <row r="186">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>9.886797491087121</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>10.31500983727894</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>13.36431730229928</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>15.91759063450221</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>14.57234900416645</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10754,6 +11326,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>13.82890901113435</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>7.184433337889326</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>5.457966246723119</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10913,8 +11494,11 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>6.926748576961467</v>
       </c>
     </row>
     <row r="195">
@@ -10970,6 +11554,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>10.40481601939414</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>6.557919703171372</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>4.660598688724397</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11132,6 +11725,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M198" t="n">
+        <v>5.698970816210981</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11183,8 +11779,11 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>3.070291420424119</v>
       </c>
     </row>
     <row r="200">
@@ -11240,6 +11839,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>4.129083785340991</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11294,6 +11896,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M201" t="n">
+        <v>5.952236960611931</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11348,6 +11953,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>8.442097609928476</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>10.0664281151251</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>12.29797127495429</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>12.93446481441334</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>10.28613464696725</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>8.500504076491287</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>6.865919362535673</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>12.88241490610885</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>15.56652415554169</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>15.83369061914612</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>13.81728376180219</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>3.767078723895784</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11993,8 +12634,11 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>5.630046878926836</v>
       </c>
     </row>
     <row r="215">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>7.99116920118477</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>10.42605124808705</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>9.83815236056034</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>4.992181825889414</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12266,6 +12922,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M219" t="n">
+        <v>7.503529883615838</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12320,6 +12979,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>10.69066062235208</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>10.48356998296728</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>10.21572261565534</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>9.600215816197991</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>8.474071287265874</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>11.80708820405066</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>12.35416289231782</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>13.45260527868628</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>15.57823377576002</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>13.74279410890671</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12860,6 +13549,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>12.8123519598449</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>11.70165738808362</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>10.94203597635506</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>12.26422556730465</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>12.6408974896906</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>11.91716076799407</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>11.81876832647655</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>14.99756418284501</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>17.88165259822404</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>14.65411022403905</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>14.71624719407167</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>14.42435551108135</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>15.91168086163885</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>14.61992054533046</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13613,8 +14344,11 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>15.62336553113895</v>
       </c>
     </row>
     <row r="245">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>17.17662902916204</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>17.09044846806749</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>17.00689313566355</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>18.32177200139746</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>18.74488580673602</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>20.64979932709301</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13994,6 +14746,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>20.33180083488568</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>20.19145620391607</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>21.97580515765302</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>21.63994004982614</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>17.19483561372241</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>19.29058673462764</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14318,6 +15088,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M257" t="n">
+        <v>26.34320693303753</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14372,6 +15145,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M258" t="n">
+        <v>23.13946044162774</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>24.57354302276483</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14480,6 +15259,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M260" t="n">
+        <v>28.0299827689746</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14534,6 +15316,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>21.96058111808836</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>19.60062704424629</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>17.30414617500538</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>15.7607416869491</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>14.92080500925865</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>17.25160499953487</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14858,6 +15658,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M267" t="n">
+        <v>18.55030157452014</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14912,6 +15715,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>17.6818079588245</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>19.4503378021218</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15020,6 +15829,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M270" t="n">
+        <v>20.89048191293904</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15074,6 +15886,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M271" t="n">
+        <v>20.22121541731122</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15128,6 +15943,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M272" t="n">
+        <v>17.74133239689079</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15182,6 +16000,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M273" t="n">
+        <v>17.49062530739477</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15236,6 +16057,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M274" t="n">
+        <v>18.76525250235568</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15290,6 +16114,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M275" t="n">
+        <v>19.65020889105199</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15344,6 +16171,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M276" t="n">
+        <v>20.94752161385401</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15398,6 +16228,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M277" t="n">
+        <v>21.18063307686138</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15452,6 +16285,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M278" t="n">
+        <v>22.20943198509569</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15506,6 +16342,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M279" t="n">
+        <v>22.08104652675406</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15560,6 +16399,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M280" t="n">
+        <v>24.27042706836659</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15614,6 +16456,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M281" t="n">
+        <v>26.71503767960933</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15668,6 +16513,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M282" t="n">
+        <v>26.1694756369521</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15722,6 +16570,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M283" t="n">
+        <v>24.9214317188366</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15776,6 +16627,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M284" t="n">
+        <v>24.22662409128794</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15830,6 +16684,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M285" t="n">
+        <v>24.25403869044908</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15884,6 +16741,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M286" t="n">
+        <v>24.25444442113196</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15938,6 +16798,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M287" t="n">
+        <v>26.04230438377715</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15992,6 +16855,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M288" t="n">
+        <v>26.96855916188406</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16046,6 +16912,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M289" t="n">
+        <v>27.86205177535018</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16100,6 +16969,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M290" t="n">
+        <v>27.85076549043475</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16154,6 +17026,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M291" t="n">
+        <v>28.99631726050407</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16208,6 +17083,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M292" t="n">
+        <v>28.7215330421637</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16262,6 +17140,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M293" t="n">
+        <v>27.20738764326363</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16316,6 +17197,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M294" t="n">
+        <v>29.67264212299271</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16370,6 +17254,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>17.81745133323816</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16424,6 +17311,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M296" t="n">
+        <v>18.17992735938464</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16478,6 +17368,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M297" t="n">
+        <v>19.26334968869383</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16532,6 +17425,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M298" t="n">
+        <v>20.0890054947543</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16586,6 +17482,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M299" t="n">
+        <v>20.77054135165594</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16640,6 +17539,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M300" t="n">
+        <v>21.25300994076226</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16694,6 +17596,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M301" t="n">
+        <v>22.03417569875418</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16748,6 +17653,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M302" t="n">
+        <v>23.27484623074903</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16802,6 +17710,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M303" t="n">
+        <v>23.33929696596294</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16856,6 +17767,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M304" t="n">
+        <v>25.48148866169054</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16910,6 +17824,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M305" t="n">
+        <v>24.3700120559561</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16964,6 +17881,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M306" t="n">
+        <v>23.47656200026377</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17018,6 +17938,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M307" t="n">
+        <v>22.38772041158441</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17072,6 +17995,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M308" t="n">
+        <v>22.43263205706781</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -17126,6 +18052,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M309" t="n">
+        <v>22.62682381680176</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17180,6 +18109,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M310" t="n">
+        <v>21.14657505946999</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17234,6 +18166,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M311" t="n">
+        <v>21.14351871927338</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17288,6 +18223,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M312" t="n">
+        <v>19.04389768648583</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17342,6 +18280,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M313" t="n">
+        <v>20.17190440926239</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17396,6 +18337,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M314" t="n">
+        <v>20.10460196031525</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17450,6 +18394,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M315" t="n">
+        <v>23.62960943195156</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17504,6 +18451,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M316" t="n">
+        <v>22.84846450819234</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17558,6 +18508,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M317" t="n">
+        <v>22.32166551232503</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17612,6 +18565,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M318" t="n">
+        <v>24.44726907739771</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17666,6 +18622,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M319" t="n">
+        <v>24.62252188654775</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17720,6 +18679,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>26.97910614388767</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17774,6 +18736,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M321" t="n">
+        <v>25.01435984078372</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17828,6 +18793,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M322" t="n">
+        <v>23.16533748914478</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17882,6 +18850,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M323" t="n">
+        <v>22.47487207327226</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17936,6 +18907,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M324" t="n">
+        <v>26.2737554069917</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17990,6 +18964,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M325" t="n">
+        <v>23.60320899219341</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18044,6 +19021,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M326" t="n">
+        <v>24.9817417244822</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -18095,8 +19075,11 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M327" t="n">
+        <v>26.51037686766087</v>
       </c>
     </row>
     <row r="328">
@@ -18152,6 +19135,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M328" t="n">
+        <v>28.33553143247236</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18206,6 +19192,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M329" t="n">
+        <v>26.98704271901827</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18260,6 +19249,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M330" t="n">
+        <v>29.38482874539784</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18314,6 +19306,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M331" t="n">
+        <v>20.94432106680197</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -18368,6 +19363,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M332" t="n">
+        <v>23.56279623698854</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18422,6 +19420,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M333" t="n">
+        <v>20.615204596013</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18476,6 +19477,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M334" t="n">
+        <v>27.68336019878978</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18530,6 +19534,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M335" t="n">
+        <v>27.59148614361781</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18584,6 +19591,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M336" t="n">
+        <v>24.09917511890362</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18638,6 +19648,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M337" t="n">
+        <v>20.97660503500797</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18692,6 +19705,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M338" t="n">
+        <v>15.47173906207423</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18746,6 +19762,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M339" t="n">
+        <v>15.58403884769727</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18800,6 +19819,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M340" t="n">
+        <v>18.83728183942217</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18854,6 +19876,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M341" t="n">
+        <v>21.26260021602572</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18908,6 +19933,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M342" t="n">
+        <v>22.80139398468797</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18962,6 +19990,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M343" t="n">
+        <v>25.88793782846311</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19016,6 +20047,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M344" t="n">
+        <v>25.80285357950671</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19070,6 +20104,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M345" t="n">
+        <v>29.41181773640039</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19124,6 +20161,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M346" t="n">
+        <v>26.82416902520553</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19178,6 +20218,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M347" t="n">
+        <v>23.03636631926117</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19232,6 +20275,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M348" t="n">
+        <v>26.04073882257358</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19286,6 +20332,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M349" t="n">
+        <v>29.10478004088447</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19340,6 +20389,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M350" t="n">
+        <v>24.86056815959776</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19394,6 +20446,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M351" t="n">
+        <v>25.23577113292078</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19448,6 +20503,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M352" t="n">
+        <v>27.05083861614921</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19502,6 +20560,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M353" t="n">
+        <v>28.08999690676934</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19556,6 +20617,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M354" t="n">
+        <v>28.64099538592759</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19610,6 +20674,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M355" t="n">
+        <v>24.43474136839754</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19664,6 +20731,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M356" t="n">
+        <v>26.97554612928431</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19718,6 +20788,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M357" t="n">
+        <v>29.18316741183596</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19772,6 +20845,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M358" t="n">
+        <v>28.86501042724441</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19826,6 +20902,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M359" t="n">
+        <v>29.99546381594255</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19880,6 +20959,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M360" t="n">
+        <v>17.65574795889011</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19934,6 +21016,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M361" t="n">
+        <v>1.264415498621578</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19987,6 +21072,9 @@
         <is>
           <t>Visited</t>
         </is>
+      </c>
+      <c r="M362" t="n">
+        <v>21.30957282023779</v>
       </c>
     </row>
   </sheetData>
